--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/201635.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/201635.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2391,22 +2391,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,34 +2645,34 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2778,28 +2778,28 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3038,28 +3038,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3165,34 +3165,34 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,28 +3298,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3437,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3685,28 +3685,28 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,19 +4078,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -4205,19 +4205,19 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4250,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4314,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
@@ -4380,16 +4380,16 @@
         <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4441,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4459,25 +4459,25 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4507,16 +4507,16 @@
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4525,16 +4525,16 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4598,19 +4598,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>2</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4701,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -4731,52 +4731,52 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4834,16 +4834,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4858,19 +4858,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
@@ -4879,10 +4879,10 @@
         <v>2</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
         <v>0</v>
@@ -4894,22 +4894,22 @@
         <v>1</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4961,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -4985,31 +4985,31 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5021,40 +5021,40 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5088,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5118,19 +5118,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
@@ -5139,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>1</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5178,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5215,22 +5215,22 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -5245,19 +5245,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -5281,40 +5281,40 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>2</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
         <v>0</v>
@@ -5414,22 +5414,22 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
@@ -5438,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5475,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5505,19 +5505,19 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5526,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5541,22 +5541,22 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -5565,16 +5565,16 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK39" t="n">
         <v>1</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5608,22 +5608,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5635,22 +5635,22 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>2</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2" t="n">
         <v>0</v>
@@ -5674,22 +5674,22 @@
         <v>1</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="2" t="n">
         <v>0</v>
@@ -5698,16 +5698,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5735,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -5762,22 +5762,22 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -5786,13 +5786,13 @@
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -5801,40 +5801,40 @@
         <v>1</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
         <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK41" t="n">
         <v>1</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5865,25 +5865,25 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5895,22 +5895,22 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
@@ -5919,13 +5919,13 @@
         <v>2</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2" t="n">
         <v>0</v>
@@ -5934,22 +5934,22 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
@@ -5958,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5998,25 +5998,25 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6028,22 +6028,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>2</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6067,40 +6067,40 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6131,25 +6131,25 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6161,22 +6161,22 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
@@ -6185,13 +6185,13 @@
         <v>2</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2" t="n">
         <v>0</v>
@@ -6200,40 +6200,40 @@
         <v>1</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6264,25 +6264,25 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>2</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6333,40 +6333,40 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6397,25 +6397,25 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6427,22 +6427,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>2</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2" t="n">
         <v>0</v>
@@ -6466,31 +6466,31 @@
         <v>1</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ46" s="2" t="n">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>2</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6530,25 +6530,25 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6563,19 +6563,19 @@
         <v>1</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
         <v>0</v>
@@ -6584,13 +6584,13 @@
         <v>2</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6599,31 +6599,31 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ47" s="2" t="n">
         <v>2</v>
@@ -6632,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6663,25 +6663,25 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6693,22 +6693,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
         <v>0</v>
@@ -6717,13 +6717,13 @@
         <v>2</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2" t="n">
         <v>0</v>
@@ -6732,31 +6732,31 @@
         <v>1</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="2" t="n">
         <v>2</v>
@@ -6765,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6796,25 +6796,25 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6829,19 +6829,19 @@
         <v>2</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="2" t="n">
         <v>0</v>
@@ -6850,13 +6850,13 @@
         <v>2</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2" t="n">
         <v>0</v>
@@ -6871,25 +6871,25 @@
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ49" s="2" t="n">
         <v>2</v>
@@ -6898,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6929,25 +6929,25 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6959,22 +6959,22 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
         <v>0</v>
@@ -6983,13 +6983,13 @@
         <v>2</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2" t="n">
         <v>0</v>
@@ -7004,25 +7004,25 @@
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50" s="2" t="n">
         <v>2</v>
@@ -7031,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7062,25 +7062,25 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7095,19 +7095,19 @@
         <v>3</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="2" t="n">
         <v>0</v>
@@ -7116,46 +7116,46 @@
         <v>2</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ51" s="2" t="n">
         <v>2</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7225,70 +7225,70 @@
         <v>0</v>
       </c>
       <c r="N52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ52" s="2" t="n">
         <v>2</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7328,25 +7328,25 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7361,19 +7361,19 @@
         <v>4</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
         <v>0</v>
@@ -7382,46 +7382,46 @@
         <v>2</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ53" s="2" t="n">
         <v>2</v>
@@ -7430,7 +7430,7 @@
         <v>2</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7461,25 +7461,25 @@
         <v>0</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7491,70 +7491,70 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ54" s="2" t="n">
         <v>2</v>
@@ -7563,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7594,25 +7594,25 @@
         <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7624,70 +7624,70 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ55" s="2" t="n">
         <v>2</v>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="3" t="inlineStr">
         <is>
@@ -7727,25 +7727,25 @@
         <v>0</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7757,70 +7757,70 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X56" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ56" s="2" t="n">
         <v>2</v>
@@ -7829,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="3" t="inlineStr">
         <is>
@@ -7860,25 +7860,25 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7893,67 +7893,67 @@
         <v>5</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ57" s="2" t="n">
         <v>2</v>
@@ -7962,7 +7962,7 @@
         <v>2</v>
       </c>
       <c r="AL57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="3" t="inlineStr">
         <is>
@@ -7993,25 +7993,25 @@
         <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -8026,67 +8026,67 @@
         <v>5</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ58" s="2" t="n">
         <v>2</v>
@@ -8126,25 +8126,25 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8159,67 +8159,67 @@
         <v>5</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ59" s="2" t="n">
         <v>2</v>
@@ -8259,25 +8259,25 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8292,67 +8292,67 @@
         <v>5</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ60" s="2" t="n">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>2</v>
       </c>
       <c r="AL60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM60" s="3" t="inlineStr">
         <is>
@@ -8392,25 +8392,25 @@
         <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8425,67 +8425,67 @@
         <v>5</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ61" s="2" t="n">
         <v>2</v>
@@ -8494,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="AL61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM61" s="3" t="inlineStr">
         <is>
@@ -8525,25 +8525,25 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8558,67 +8558,67 @@
         <v>5</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="X62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH62" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ62" s="2" t="n">
         <v>2</v>
@@ -8627,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="AL62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM62" s="3" t="inlineStr">
         <is>
@@ -8652,25 +8652,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8685,67 +8685,67 @@
         <v>5</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W63" t="n">
         <v>2</v>
       </c>
       <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" t="n">
         <v>5</v>
       </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>2</v>
-      </c>
       <c r="AB63" t="n">
         <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
         <v>1</v>
       </c>
       <c r="AH63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ63" t="n">
         <v>2</v>
@@ -8754,7 +8754,7 @@
         <v>2</v>
       </c>
       <c r="AL63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM63" s="3" t="inlineStr">
         <is>
@@ -8785,25 +8785,25 @@
         <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8818,67 +8818,67 @@
         <v>5</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH64" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ64" s="2" t="n">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="AL64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM64" s="3" t="inlineStr">
         <is>
@@ -8912,25 +8912,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -8939,73 +8939,73 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>5</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="n">
         <v>5</v>
       </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>3</v>
-      </c>
       <c r="AB65" t="n">
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG65" t="n">
         <v>1</v>
       </c>
       <c r="AH65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ65" t="n">
         <v>2</v>
@@ -9014,7 +9014,7 @@
         <v>2</v>
       </c>
       <c r="AL65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM65" s="3" t="inlineStr">
         <is>
@@ -9045,25 +9045,25 @@
         <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9078,67 +9078,67 @@
         <v>5</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH66" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ66" s="2" t="n">
         <v>2</v>
@@ -9147,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="AL66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM66" s="3" t="inlineStr">
         <is>
@@ -9169,28 +9169,28 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -9205,67 +9205,67 @@
         <v>5</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
         <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="n">
         <v>5</v>
       </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>3</v>
-      </c>
       <c r="AB67" t="n">
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="n">
         <v>1</v>
       </c>
       <c r="AH67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ67" t="n">
         <v>2</v>
@@ -9274,7 +9274,7 @@
         <v>3</v>
       </c>
       <c r="AL67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM67" s="3" t="inlineStr">
         <is>
@@ -9305,25 +9305,25 @@
         <v>0</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9332,73 +9332,73 @@
         <v>0</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W68" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH68" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ68" s="2" t="n">
         <v>2</v>
@@ -9407,7 +9407,7 @@
         <v>3</v>
       </c>
       <c r="AL68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM68" s="3" t="inlineStr">
         <is>
@@ -9429,28 +9429,28 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -9459,73 +9459,73 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>5</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="n">
         <v>5</v>
       </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>3</v>
-      </c>
       <c r="AB69" t="n">
         <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
         <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="n">
         <v>1</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ69" t="n">
         <v>2</v>
@@ -9534,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="AL69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM69" s="3" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>2</v>
@@ -9574,16 +9574,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9592,73 +9592,73 @@
         <v>0</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH70" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ70" s="2" t="n">
         <v>2</v>
@@ -9667,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="AL70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM70" s="3" t="inlineStr">
         <is>
@@ -9689,28 +9689,28 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -9719,73 +9719,73 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>5</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
         <v>5</v>
       </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>3</v>
-      </c>
       <c r="AB71" t="n">
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
         <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG71" t="n">
         <v>1</v>
       </c>
       <c r="AH71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ71" t="n">
         <v>2</v>
@@ -9794,7 +9794,7 @@
         <v>3</v>
       </c>
       <c r="AL71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM71" s="3" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>2</v>
@@ -9834,16 +9834,16 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -9852,73 +9852,73 @@
         <v>1</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W72" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF72" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH72" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ72" s="2" t="n">
         <v>2</v>
@@ -9927,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="AL72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM72" s="3" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -9961,91 +9961,91 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
       <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2</v>
+      </c>
+      <c r="W73" t="n">
         <v>3</v>
       </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA73" t="n">
         <v>5</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1</v>
-      </c>
-      <c r="W73" t="n">
-        <v>2</v>
-      </c>
-      <c r="X73" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>3</v>
-      </c>
       <c r="AB73" t="n">
         <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
         <v>1</v>
       </c>
       <c r="AH73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ73" t="n">
         <v>2</v>
@@ -10054,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="AL73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM73" s="3" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>2</v>
@@ -10094,16 +10094,16 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="n">
         <v>1</v>
@@ -10112,19 +10112,19 @@
         <v>1</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="2" t="n">
         <v>0</v>
@@ -10133,52 +10133,52 @@
         <v>1</v>
       </c>
       <c r="T74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V74" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W74" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF74" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH74" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI74" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ74" s="2" t="n">
         <v>2</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="AL74" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM74" s="3" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -10221,37 +10221,37 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10260,52 +10260,52 @@
         <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="n">
         <v>5</v>
       </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>3</v>
-      </c>
       <c r="AB75" t="n">
         <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
         <v>1</v>
       </c>
       <c r="AF75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
         <v>1</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ75" t="n">
         <v>2</v>
@@ -10314,7 +10314,7 @@
         <v>3</v>
       </c>
       <c r="AL75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM75" s="3" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>2</v>
@@ -10354,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>1</v>
@@ -10372,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="2" t="n">
         <v>5</v>
@@ -10381,10 +10381,10 @@
         <v>1</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="2" t="n">
         <v>0</v>
@@ -10393,52 +10393,52 @@
         <v>1</v>
       </c>
       <c r="T76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V76" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W76" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF76" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH76" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI76" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ76" s="2" t="n">
         <v>2</v>
@@ -10447,7 +10447,7 @@
         <v>3</v>
       </c>
       <c r="AL76" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM76" s="3" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -10481,16 +10481,16 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10520,52 +10520,52 @@
         <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="n">
         <v>5</v>
       </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>3</v>
-      </c>
       <c r="AB77" t="n">
         <v>1</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
         <v>1</v>
       </c>
       <c r="AF77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG77" t="n">
         <v>1</v>
       </c>
       <c r="AH77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ77" t="n">
         <v>2</v>
@@ -10574,7 +10574,7 @@
         <v>3</v>
       </c>
       <c r="AL77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM77" s="3" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>2</v>
@@ -10614,16 +10614,16 @@
         <v>0</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="n">
         <v>1</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="2" t="n">
         <v>5</v>
@@ -10641,41 +10641,41 @@
         <v>1</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W78" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB78" s="2" t="n">
         <v>1</v>
       </c>
@@ -10683,22 +10683,22 @@
         <v>1</v>
       </c>
       <c r="AD78" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF78" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH78" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ78" s="2" t="n">
         <v>2</v>
@@ -10707,7 +10707,7 @@
         <v>3</v>
       </c>
       <c r="AL78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM78" s="3" t="inlineStr">
         <is>
@@ -10732,25 +10732,25 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>5</v>
@@ -10768,41 +10768,41 @@
         <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
         <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA79" t="n">
         <v>5</v>
       </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>3</v>
-      </c>
       <c r="AB79" t="n">
         <v>1</v>
       </c>
@@ -10810,22 +10810,22 @@
         <v>1</v>
       </c>
       <c r="AD79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE79" t="n">
         <v>1</v>
       </c>
       <c r="AF79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG79" t="n">
         <v>1</v>
       </c>
       <c r="AH79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ79" t="n">
         <v>2</v>
@@ -10834,16 +10834,16 @@
         <v>3</v>
       </c>
       <c r="AL79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM79" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN79" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>2</v>
@@ -10877,13 +10877,13 @@
         <v>1</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2" t="n">
         <v>1</v>
@@ -10892,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="2" t="n">
         <v>5</v>
@@ -10901,41 +10901,41 @@
         <v>1</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V80" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W80" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA80" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="n">
         <v>1</v>
       </c>
@@ -10943,22 +10943,22 @@
         <v>1</v>
       </c>
       <c r="AD80" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF80" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH80" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI80" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ80" s="2" t="n">
         <v>2</v>
@@ -10967,7 +10967,7 @@
         <v>3</v>
       </c>
       <c r="AL80" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM80" s="3" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -11004,13 +11004,13 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -11028,41 +11028,41 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
         <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA81" t="n">
         <v>5</v>
       </c>
-      <c r="Y81" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>3</v>
-      </c>
       <c r="AB81" t="n">
         <v>1</v>
       </c>
@@ -11070,22 +11070,22 @@
         <v>1</v>
       </c>
       <c r="AD81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG81" t="n">
         <v>1</v>
       </c>
       <c r="AH81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ81" t="n">
         <v>2</v>
@@ -11094,16 +11094,16 @@
         <v>3</v>
       </c>
       <c r="AL81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM81" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN81" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>2</v>
@@ -11137,13 +11137,13 @@
         <v>1</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82" s="2" t="n">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="2" t="n">
         <v>5</v>
@@ -11167,35 +11167,35 @@
         <v>1</v>
       </c>
       <c r="R82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="2" t="n">
         <v>2</v>
       </c>
       <c r="V82" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W82" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA82" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB82" s="2" t="n">
         <v>1</v>
       </c>
@@ -11203,22 +11203,22 @@
         <v>1</v>
       </c>
       <c r="AD82" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF82" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH82" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI82" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ82" s="2" t="n">
         <v>2</v>
@@ -11227,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="AL82" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM82" s="3" t="inlineStr">
         <is>
@@ -11252,25 +11252,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -11294,35 +11294,35 @@
         <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" t="n">
         <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA83" t="n">
         <v>5</v>
       </c>
-      <c r="Y83" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>3</v>
-      </c>
       <c r="AB83" t="n">
         <v>1</v>
       </c>
@@ -11330,22 +11330,22 @@
         <v>1</v>
       </c>
       <c r="AD83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG83" t="n">
         <v>1</v>
       </c>
       <c r="AH83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ83" t="n">
         <v>2</v>
@@ -11354,16 +11354,16 @@
         <v>3</v>
       </c>
       <c r="AL83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM83" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN83" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
